--- a/assets/modlist.xlsx
+++ b/assets/modlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongy\Documents\GitHub\mc-GT6\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mc\mc-GT6\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2826FDA-FB4F-4C96-B0B8-91F29E300246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415FCAF-A73F-4B65-BD35-585639342CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9012" yWindow="4248" windowWidth="30264" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,190 @@
   </si>
   <si>
     <t>appliedenergistics2-rv3-beta-6.jar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无尽贪婪 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avaritia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/505.html
+https://www.mcmod.cn/download/505.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExCompressum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/486.html
+https://www.mcmod.cn/download/486.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无中生有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex Nihilo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/250.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex-Nihilo-1.38-53.jar</t>
+  </si>
+  <si>
+    <t>excompressum-mc1.7.10-1.2.0_1.7.10.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avaritia-1.13.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeChicken Lib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/562.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeChickenLib-1.7.10-1.1.3.140-universal_1.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neat+1.0-1_1.7.10.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简血量显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/619.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TConstruct-1.7.10-1.8.8.build991_1.7.10.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匠魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/41.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEI物品管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotEnoughItems-1.7.10-1.0.5.120-universal_1.7.10.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/101.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TiC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waila-1.5.10_1.7.10_1.7.10.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高亮信息拓展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/246.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高亮显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wawla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/1201.html</t>
+  </si>
+  <si>
+    <t>Wawla-1.0.5.120.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WailaHarvestability-mc1.7.10-1.1.6.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/mc-mods/waila-harvestability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waila Harvestability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoFHLib-[1.7.10]1.2.1-185_1.7.10.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoFH Lib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/864.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业时代2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,23 +650,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="3" width="12.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.875" style="4"/>
+    <col min="2" max="2" width="15.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -502,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -520,7 +705,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -538,125 +723,225 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
